--- a/report/Flight perturbation analysis.xlsx
+++ b/report/Flight perturbation analysis.xlsx
@@ -1571,6 +1571,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Min x, x = -10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1632,6 +1657,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$56</c:f>
@@ -1831,6 +2030,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$56</c:f>
@@ -2218,6 +2591,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mid x, x = 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2279,6 +2677,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$N$2:$N$56</c:f>
@@ -2478,6 +3050,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$O$2:$O$56</c:f>
@@ -2865,6 +3611,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Max x, x = 30</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2926,6 +3697,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$P$2:$P$56</c:f>
@@ -3125,6 +4070,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$56</c:f>
@@ -3512,6 +4631,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>x = 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3573,6 +4717,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$2:$L$56</c:f>
@@ -3772,6 +5090,180 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$56</c:f>
@@ -6731,7 +8223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:M56"/>
     </sheetView>
   </sheetViews>
